--- a/static/Data/Daten_2024-08-25.xlsx
+++ b/static/Data/Daten_2024-08-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/377d0af42f0f7bd1/Programming/Politiklandschaft von Schaffhausen/static/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{22239403-7901-43E8-84B2-022B1CAE56DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316AA7EB-F099-4C7C-8A45-83AE69472A05}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{22239403-7901-43E8-84B2-022B1CAE56DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC9CDF6-6813-4D23-A887-9927EC11B3BD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="895" firstSheet="21" activeTab="21" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="895" firstSheet="1" activeTab="5" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="709">
   <si>
     <t>Quelle</t>
   </si>
@@ -2132,6 +2132,90 @@
   </si>
   <si>
     <t>schulreferat@buettenhardt.ch</t>
+  </si>
+  <si>
+    <t>Liegenschaften</t>
+  </si>
+  <si>
+    <t>thomas.mueller@stetten.ch</t>
+  </si>
+  <si>
+    <t>adrian.horat@stetten.ch</t>
+  </si>
+  <si>
+    <t>philipp.pfister@stetten.ch</t>
+  </si>
+  <si>
+    <t>philip.zuercher@stetten.ch</t>
+  </si>
+  <si>
+    <t>stefan.mueller@stetten.ch</t>
+  </si>
+  <si>
+    <t>info@stetten.ch</t>
+  </si>
+  <si>
+    <t>gemeindepraesidium@lohn.ch</t>
+  </si>
+  <si>
+    <t>Soziales</t>
+  </si>
+  <si>
+    <t>thomas.bruehlmann@lohn.ch</t>
+  </si>
+  <si>
+    <t>rolf.amstad@lohn.ch</t>
+  </si>
+  <si>
+    <t>reto.bruehlmann@lohn.ch</t>
+  </si>
+  <si>
+    <t>philipp.streif@lohn.ch</t>
+  </si>
+  <si>
+    <t>claudia.schmid@lohn.ch</t>
+  </si>
+  <si>
+    <t>Vize</t>
+  </si>
+  <si>
+    <t>aellig@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>ursula.risch@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>gabriel.ulrich@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>stefan.thalmann@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>petra.roost@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>info@doerflingen.ch</t>
+  </si>
+  <si>
+    <t>martina.jenzer@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>hans.graf@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>samuel.brielmeier@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>heinz.ruh@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>martin.ruh@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>gemeindekanzlei@buch-sh.ch</t>
+  </si>
+  <si>
+    <t>einwohnerrat@steinamrhein.ch</t>
   </si>
 </sst>
 </file>
@@ -2485,6 +2569,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC490B4-5049-4E9C-BFA7-4A9ACB5630CF}" name="Table13" displayName="Table13" ref="A7:H12" totalsRowShown="0">
   <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
@@ -2647,9 +2735,9 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{80EF42D7-E2A9-4637-845B-AFD346C7EA41}" name="Table131011121381415181920" displayName="Table131011121381415181920" ref="A7:H12" totalsRowShown="0">
-  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{80EF42D7-E2A9-4637-845B-AFD346C7EA41}" name="Table131011121381415181920" displayName="Table131011121381415181920" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0C1CAE26-35BA-47B3-8ACB-B8CBF1C66321}" name="Vorname" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{55AAE6EF-6B61-4AB1-AF64-BC514832D8AF}" name="Nachname" dataDxfId="73"/>
     <tableColumn id="3" xr3:uid="{313422AD-D44B-4374-986D-9172DBDD5E7F}" name="Partei" dataDxfId="72"/>
@@ -2658,15 +2746,16 @@
     <tableColumn id="6" xr3:uid="{526D01D2-4E34-4764-A871-CE545652AF54}" name="Aufgabe" dataDxfId="70"/>
     <tableColumn id="7" xr3:uid="{59C9DD86-228B-4C61-BC45-0FF98A2278F5}" name="BildURL"/>
     <tableColumn id="8" xr3:uid="{151809F9-3A90-4F65-9AE1-D27E0A9B618E}" name="Geschlecht"/>
+    <tableColumn id="9" xr3:uid="{785CA1D8-DA4C-4E6B-9C90-DC2F56E48E78}" name="E-Mail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BEFE52F8-6B67-43E4-9DC3-58E3AE1F1CFA}" name="Table13101112138141518192021" displayName="Table13101112138141518192021" ref="A7:H12" totalsRowShown="0">
-  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BEFE52F8-6B67-43E4-9DC3-58E3AE1F1CFA}" name="Table13101112138141518192021" displayName="Table13101112138141518192021" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{5F5E85FC-25CE-425C-87E8-D307F0334EDC}" name="Vorname" dataDxfId="69"/>
     <tableColumn id="2" xr3:uid="{52B23B96-35F4-401E-BCAF-82F1505A790D}" name="Nachname" dataDxfId="68"/>
     <tableColumn id="3" xr3:uid="{827A1734-4160-4DDD-ADA4-91DBB8D01A2B}" name="Partei" dataDxfId="67"/>
@@ -2675,6 +2764,7 @@
     <tableColumn id="6" xr3:uid="{3BA3881A-B6C5-4EB3-9505-5323B9B42CC1}" name="Aufgabe" dataDxfId="65"/>
     <tableColumn id="7" xr3:uid="{073CC83D-678E-49C4-B805-758E7817686C}" name="BildURL"/>
     <tableColumn id="8" xr3:uid="{5D6ECD6E-E629-4CCD-B620-A865BA30EB3A}" name="Geschlecht"/>
+    <tableColumn id="9" xr3:uid="{7D80B3D8-BE91-437C-9ABC-6EFC4BD551EA}" name="E-Mail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2699,9 +2789,9 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{3F6C97EC-4865-46AB-9A44-36FF214DBC22}" name="Table1310111213814151819202122" displayName="Table1310111213814151819202122" ref="A7:H12" totalsRowShown="0">
-  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{3F6C97EC-4865-46AB-9A44-36FF214DBC22}" name="Table1310111213814151819202122" displayName="Table1310111213814151819202122" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7F4BB391-1B3F-4E68-B498-6AFE9C91DC74}" name="Vorname" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{4831B6AE-9B94-4D3E-9389-6A1C17DC7CE1}" name="Nachname" dataDxfId="63"/>
     <tableColumn id="3" xr3:uid="{4A3A758C-452B-47B2-BFD8-8699AF589391}" name="Partei" dataDxfId="62"/>
@@ -2710,15 +2800,16 @@
     <tableColumn id="6" xr3:uid="{D87AB6F1-E5E6-4ECF-BC9A-CE526DE93FB7}" name="Aufgabe" dataDxfId="60"/>
     <tableColumn id="7" xr3:uid="{3EB42077-225A-4BFB-9E1E-C4F9EA839110}" name="BildURL"/>
     <tableColumn id="8" xr3:uid="{F050E7E3-E2D9-4714-B7D8-7961505D0AC0}" name="Geschlecht"/>
+    <tableColumn id="9" xr3:uid="{0C9E7AFC-EA29-4DEA-8392-D8E0DAE6559D}" name="E-Mail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0FAFE83B-1CB2-4ECD-A5AF-894DD23DB8DC}" name="Table131011121381415181920212223" displayName="Table131011121381415181920212223" ref="A7:H12" totalsRowShown="0">
-  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0FAFE83B-1CB2-4ECD-A5AF-894DD23DB8DC}" name="Table131011121381415181920212223" displayName="Table131011121381415181920212223" ref="A7:I12" totalsRowShown="0">
+  <autoFilter ref="A7:I12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8D306726-8589-45D7-B8C6-C86FC7C4A7B0}" name="Vorname" dataDxfId="59"/>
     <tableColumn id="2" xr3:uid="{B50367C0-3B39-4560-9426-6DDA45DB7CEE}" name="Nachname" dataDxfId="58"/>
     <tableColumn id="3" xr3:uid="{28109D62-2395-4BEE-BD80-9C72DCCF383B}" name="Partei" dataDxfId="57"/>
@@ -2727,6 +2818,7 @@
     <tableColumn id="6" xr3:uid="{E1FAE809-33B3-43B7-930A-F1FCD2B75A17}" name="Aufgabe" dataDxfId="55"/>
     <tableColumn id="7" xr3:uid="{F1BB47AE-9CB4-4076-B1E4-094F9D2F99F3}" name="BildURL"/>
     <tableColumn id="8" xr3:uid="{AE3A63D1-96DA-424B-9C1B-61BB21D8D579}" name="Geschlecht"/>
+    <tableColumn id="9" xr3:uid="{15F64566-954D-4F3A-9774-787EE5015670}" name="E-Mail"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3876,7 +3968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143925CD-E4B9-41AE-A90D-DDA71E00D487}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="59" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4076,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C9145-8D0C-40D1-ACB9-C69DDBBF9623}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4487,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8E98A-B9CF-4868-A239-EC1BADA1D363}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4715,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887C2466-C2EC-40C1-9A3B-E995752AEE68}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4748,6 +4840,9 @@
       <c r="F2" t="s">
         <v>512</v>
       </c>
+      <c r="G2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -5077,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9AF6C2-6BC9-4DC8-8047-E7696DF59D74}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="63" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5257,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A134B6-6850-4661-8474-D018825B45F5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5436,10 +5531,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832A7A1A-8EE3-4682-96E2-37748D891809}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5452,23 +5547,30 @@
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="83.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Buch</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5476,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5484,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5493,7 +5595,7 @@
         <v>Buch</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5518,61 +5620,94 @@
       <c r="H7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>495</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>496</v>
       </c>
       <c r="B9" t="s">
         <v>497</v>
       </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
       <c r="H9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>498</v>
       </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>499</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
       </c>
+      <c r="F11" t="s">
+        <v>689</v>
+      </c>
       <c r="H11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
       </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
       <c r="H12" t="s">
         <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -5588,10 +5723,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E62012-4CEC-4E5E-82EA-D80F807C6B13}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5604,23 +5739,30 @@
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="83.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Dörflingen</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5628,7 +5770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5636,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5645,7 +5787,7 @@
         <v>Dörflingen</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5670,61 +5812,109 @@
       <c r="H7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>500</v>
       </c>
       <c r="B8" t="s">
         <v>501</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>503</v>
       </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>695</v>
+      </c>
       <c r="H9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>341</v>
       </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>505</v>
       </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>506</v>
       </c>
       <c r="B12" t="s">
         <v>507</v>
       </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
       <c r="H12" t="s">
         <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +5932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F72BD0-FAAA-4521-8325-B69DB37DF350}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -5956,10 +6146,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1AB0DD-3FC9-4AA4-BF04-74DB0DBF0932}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5972,23 +6162,30 @@
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="83.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Lohn</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5996,7 +6193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6004,7 +6201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6013,7 +6210,7 @@
         <v>Lohn</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6038,80 +6235,115 @@
       <c r="H7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>460</v>
       </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>508</v>
       </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
       <c r="H9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>509</v>
       </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>508</v>
       </c>
+      <c r="F11" t="s">
+        <v>689</v>
+      </c>
       <c r="H11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>511</v>
       </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
       <c r="H12" t="s">
         <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B0BA119F-0BBF-4309-A384-8F3CBB7F8D03}"/>
+    <hyperlink ref="I8" r:id="rId2" display="mailto:gemeindepraesidium@lohn.ch" xr:uid="{DA17E3FF-6E31-404D-836A-07C1A76DA4E1}"/>
+    <hyperlink ref="I9" r:id="rId3" display="mailto:thomas.bruehlmann@lohn.ch" xr:uid="{E1C66D37-AEE8-4680-A859-0A8455CC35E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFEB7DA-D45E-4239-A77D-32312EBE4CD6}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6124,23 +6356,30 @@
     <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="83.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn.TEXTAFTER(CELL("filename",A1),"]")</f>
         <v>Gemeinderat Stetten</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6148,7 +6387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6156,7 +6395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6165,7 +6404,7 @@
         <v>Stetten</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6190,75 +6429,108 @@
       <c r="H7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>292</v>
       </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>481</v>
       </c>
       <c r="H8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>473</v>
       </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>480</v>
       </c>
       <c r="H9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>386</v>
       </c>
       <c r="B10" t="s">
         <v>474</v>
       </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>479</v>
       </c>
       <c r="H10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>476</v>
       </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>478</v>
       </c>
       <c r="H11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>292</v>
       </c>
+      <c r="F12" t="s">
+        <v>681</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>477</v>
       </c>
       <c r="H12" t="s">
         <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +6553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6360853C-62CF-4665-BF75-E9C6E0A9D252}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+    <sheetView zoomScale="56" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -7929,7 +8201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECD3AB5-3A2B-47BA-B237-EF7EBCBA7619}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="76" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7958,6 +8230,9 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -8868,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A7C97F-14F9-4CEC-814C-FF291FAED807}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9263,8 +9538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DC302C-963E-4566-AF9C-DBB3551F9DE4}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="AC23" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
